--- a/data/trans_dic/P19_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P19_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo)</t>
+          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 99,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>93,77%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>95,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>93,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>91,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>90,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>91,14%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>89,97%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>87,75%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>91,95%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>94,61%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>94,66%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>92,64%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>91,87%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>91,49%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>89,67%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,33</t>
+          <t>91,44; 95,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,39</t>
+          <t>94,28; 97,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,78</t>
+          <t>93,25; 97,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,88; 9,21</t>
+          <t>89,84; 94,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,14</t>
+          <t>90,04; 94,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,94; 11,86</t>
+          <t>90,9; 94,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,01; 9,04</t>
+          <t>89,08; 93,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,13</t>
+          <t>88,02; 92,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 9,54</t>
+          <t>90,86; 95,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 12,46</t>
+          <t>91,9; 95,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,67; 9,6</t>
+          <t>90,63; 94,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,77</t>
+          <t>88,57; 93,19</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,29; 6,84</t>
+          <t>87,58; 91,95</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,89; 8,68</t>
+          <t>85,03; 89,74</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>7,04; 10,02</t>
+          <t>90,47; 93,3</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>93,25; 95,81</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>93,33; 95,8</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>91,11; 93,9</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>90,14; 93,53</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>89,81; 92,88</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>87,81; 91,11</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>93,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>90,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>93,41%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>91,73%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>90,56%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>88,05%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>92,61%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>94,1%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>94,39%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>92,73%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>93,1%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>90,04%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>88,89%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,15</t>
+          <t>93,71; 97,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,98</t>
+          <t>94,89; 98,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,65</t>
+          <t>93,25; 96,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 11,58</t>
+          <t>88,8; 96,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 9,63</t>
+          <t>93,35; 97,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 13,99</t>
+          <t>89,83; 96,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,38; 12,06</t>
+          <t>84,96; 92,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,43</t>
+          <t>86,03; 91,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,86</t>
+          <t>87,51; 93,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,9; 20,98</t>
+          <t>91,14; 95,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 9,32</t>
+          <t>89,3; 93,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,53</t>
+          <t>87,77; 93,06</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,89</t>
+          <t>78,06; 90,47</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,95</t>
+          <t>83,2; 91,75</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>6,99; 13,63</t>
+          <t>90,74; 94,17</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>92,07; 95,62</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>93,09; 95,7</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>90,02; 94,38</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>91,34; 94,68</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>86,52; 92,69</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>86,07; 91,6</t>
         </is>
       </c>
     </row>
@@ -1020,75 +1189,105 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>98,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>94,43%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>9,61%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>90,39%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>89,77%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>91,46%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>91,26%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>8,2%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>3,68%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>8,19%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>91,8%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>96,09%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>91,78%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>94,35%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>92,87%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 12,1</t>
+          <t>88,37; 96,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,8</t>
+          <t>95,74; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 11,61</t>
+          <t>88,83; 97,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,58</t>
+          <t>91,85; 99,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>88,28; 97,75</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>5,96; 14,84</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 13,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 16,1</t>
+          <t>85,6; 94,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,68; 13,08</t>
+          <t>87,32; 97,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>84,14; 94,16</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>86,71; 94,94</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>83,5; 95,48</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>5,51; 11,82</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>1,78; 6,56</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>5,31; 11,84</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 8,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>87,64; 94,29</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>92,57; 98,11</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>88,28; 94,63</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>90,87; 96,56</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>87,97; 95,89</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>94,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>89,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>88,99%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>92,2%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>94,58%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>94,22%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>92,88%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>92,47%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>91,16%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>89,49%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,95</t>
+          <t>93,04; 95,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,93</t>
+          <t>95,51; 97,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,16</t>
+          <t>93,88; 96,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,25</t>
+          <t>91,63; 95,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 8,41</t>
+          <t>92,57; 95,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,64; 11,81</t>
+          <t>91,58; 94,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,15</t>
+          <t>88,96; 93,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,02</t>
+          <t>88,3; 91,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,45</t>
+          <t>90,57; 93,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,16; 13,26</t>
+          <t>91,79; 94,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 8,81</t>
+          <t>90,69; 93,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,2</t>
+          <t>89,25; 92,55</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 6,75</t>
+          <t>86,73; 90,85</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 8,41</t>
+          <t>85,62; 89,79</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>7,6; 10,4</t>
+          <t>91,16; 93,26</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>93,55; 95,49</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>93,27; 95,0</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>91,6; 93,98</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>91,26; 93,64</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>89,78; 92,28</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>87,96; 90,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 99,67%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>626.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>550.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>651.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>626.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>478.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>637.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>609.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>711.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>642.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>779.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>797.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>581.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>766.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1337.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1192.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1430.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1423.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>1059.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>1403.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>1385.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1532257</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1574528</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1566347</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1511979</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1517341</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>213320</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>208664</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1596623</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1670234</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1703636</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1674128</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1634450</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>213377</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>206018</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3128881</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3244761</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>3269983</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3186106</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>3151792</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>426696</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>414682</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1494043; 1558522</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1545439; 1597700</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1526246; 1588639</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1466040; 1545395</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1474183; 1554854</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>208340; 217058</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>202823; 213478</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1556842; 1629272</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1626701; 1702391</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1670525; 1734382</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1638083; 1703294</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1588416; 1671238</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>207711; 218073</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>199618; 210681</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3078339; 3174644</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3198069; 3286029</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>3224081; 3309253</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3133449; 3229361</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>3092392; 3208542</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>418853; 433163</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>406058; 421340</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>524.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>445.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>497.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>489.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>398.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>555.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>466.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>577.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>458.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1079.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>911.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>1091.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1066.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>856.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1325464</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1328582</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1310662</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1275732</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1318983</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>67602</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>65692</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1235912</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1241086</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1275744</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1253563</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1243344</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>55722</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>58923</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2561376</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2569668</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2586406</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2529295</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>2562328</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>123324</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>124614</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1297248; 1344501</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1296687; 1345954</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1281679; 1333096</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1208522; 1310123</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1287591; 1342770</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>64424; 69422</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>62253; 68001</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1188570; 1268105</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1193885; 1275922</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1244709; 1302730</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1220436; 1278389</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1205003; 1277619</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>50926; 59024</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>55676; 61395</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2509796; 2604437</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2514265; 2611141</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2550780; 2622354</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2455395; 2574293</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>2513882; 2605932</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>118503; 126945</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>120669; 128412</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>390256</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>417282</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>394086</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>410582</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>399256</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>364154</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>375960</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>358771</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>368577</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>375913</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>754411</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>793242</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>752856</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>779159</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>775169</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>370172; 403562</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>404791; 422814</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>373612; 408351</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>388365; 418599</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>373249; 413296</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>344871; 380539</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>351661; 390925</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>336298; 376344</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>349455; 382601</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>343925; 393272</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>720167; 774844</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>764228; 809949</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>724155; 776253</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>750415; 797426</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>734292; 800417</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1269.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1109.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1285.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1254.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>971.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>856.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>833.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1422.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1238.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1525.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1527.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1152.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>972.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>973.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2691.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2347.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>2810.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>2781.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>2123.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>1828.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>1806.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3247978</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3320392</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3271095</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3198293</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3235580</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>280922</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>274356</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3196689</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3287280</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3338151</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3296267</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3253707</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>269099</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>264941</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>6444667</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>6607671</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>6609245</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>6494560</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>6489288</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>550021</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>539296</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3198040; 3287672</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3274716; 3353488</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3221897; 3305567</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3129871; 3248910</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3184046; 3284750</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>275602; 285756</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>267723; 280080</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3137459; 3250326</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3222093; 3338575</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3288812; 3377532</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3244159; 3339334</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3193674; 3311650</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>262292; 274724</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>258309; 270880</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>6372496; 6518910</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>6535682; 6671272</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>6542727; 6664180</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>6405221; 6572129</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>6404067; 6571149</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>541683; 556741</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>530092; 547550</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
